--- a/banhang.xlsx
+++ b/banhang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,95 +1050,107 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Macaron</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D33" t="n">
+        <v>8</v>
+      </c>
+      <c r="E33" t="n">
+        <v>80000</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Macaron</t>
+          <t>Crepe</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="D34" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E34" t="n">
-        <v>80000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Crepe</t>
+          <t>Cookies</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="D35" t="n">
         <v>5</v>
       </c>
       <c r="E35" t="n">
-        <v>150000</v>
+        <v>125000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cookies</t>
+          <t>Su Kem</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="D36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>125000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Su Kem</t>
+          <t>Donut</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Donut</t>
+          <t>Cupcake</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1153,11 +1165,11 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cupcake</t>
+          <t>Panna Cotta</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1172,45 +1184,45 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Panna Cotta</t>
+          <t>Tiramisu</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Tiramisu</t>
+          <t>Red Velvet</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1221,10 +1233,29 @@
         <v>45000</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>45000</v>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Su Kem</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>40000</v>
       </c>
     </row>
   </sheetData>
